--- a/calendario.xlsx
+++ b/calendario.xlsx
@@ -864,7 +864,7 @@
     <row customHeight="1" ht="33.75" r="2">
       <c r="B2" s="23" t="inlineStr">
         <is>
-          <t>1F-IRD</t>
+          <t>4A-DSM</t>
         </is>
       </c>
     </row>
@@ -931,32 +931,32 @@
       </c>
       <c r="B8" s="14" t="inlineStr">
         <is>
-          <t>18-Nov</t>
+          <t>14-Ene</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>18-Nov</t>
+          <t>28-Jun</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>18-Nov</t>
+          <t>15-Jul</t>
         </is>
       </c>
       <c r="E8" s="14" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>31-Jul</t>
         </is>
       </c>
       <c r="F8" s="14" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>18-Sep</t>
         </is>
       </c>
       <c r="G8" s="14" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>10-Dic</t>
         </is>
       </c>
       <c r="H8" s="3" t="n"/>
@@ -964,40 +964,43 @@
     <row customHeight="1" ht="50.1" r="9">
       <c r="A9" s="12" t="inlineStr">
         <is>
-          <t>DESARROLLO DE HABILIDADES DEL PENSAMIENTO LÓGICO</t>
+          <t>DISEÑO DE APPS</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>Viernes 8 de Noviembre 
- Aula C-104 - 7:50</t>
+          <t>Martes 8 de Enero 
+ Lab 5 - 7:00</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Viernes 8 de Noviembre 
- Aula C-104 - 7:50</t>
+          <t>Martes 25 de Junio 
+ Lab 5 - 7:00</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Viernes 8 de Noviembre 
- Aula C-104 - 7:50</t>
+          <t>Martes 9 de Julio 
+ Lab 5 - 7:00</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Martes 30 de Julio 
+ Lab 5 - 7:00</t>
         </is>
       </c>
       <c r="F9" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Martes 17 de Septiembre 
+ Lab 9 - 9:50</t>
         </is>
       </c>
       <c r="G9" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Lunes 9 de Diciembre 
+ Lab 2 - 9:50</t>
         </is>
       </c>
       <c r="H9" s="4" t="n"/>
@@ -1005,40 +1008,43 @@
     <row customHeight="1" ht="50.1" r="10">
       <c r="A10" s="13" t="inlineStr">
         <is>
-          <t>FORMACIÓN SOCIOCULTURAL I</t>
+          <t>PRINCIPIOS PARA IOT</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Jueves 7 de Noviembre 
- Aula C-104 - 11:00</t>
+          <t>Miercoles 9 de Enero 
+ Lab 6 - 7:00</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Jueves 7 de Noviembre 
- Aula C-104 - 9:50</t>
+          <t>Miercoles 26 de Junio 
+ Lab 6 - 7:00</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Miercoles 6 de Noviembre 
- Aula C-104 - 9:50</t>
+          <t>Miercoles 10 de Julio 
+ Lab 6 - 7:00</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Miercoles 24 de Julio 
+ Lab 6 - 7:00</t>
         </is>
       </c>
       <c r="F10" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Martes 17 de Septiembre 
+ Lab1 - 12:40</t>
         </is>
       </c>
       <c r="G10" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Lunes 9 de Diciembre 
+ Lab 2 - 11:00</t>
         </is>
       </c>
       <c r="H10" s="4" t="n"/>
@@ -1046,40 +1052,43 @@
     <row customHeight="1" ht="50.1" r="11">
       <c r="A11" s="17" t="inlineStr">
         <is>
-          <t>ÁLGEBRA LINEAL</t>
+          <t>FORMACIÓN SOCIOCULTURAL IV</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>Viernes 8 de Noviembre 
- Aula C-104 - 12:40</t>
+          <t>Jueves 10 de Enero 
+ Aula C-103 - 7:00</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Viernes 8 de Noviembre 
- Aula C-104 - 12:40</t>
+          <t>Jueves 27 de Junio 
+ Aula C-103 - 7:00</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>Viernes 8 de Noviembre 
- Aula C-104 - 12:40</t>
+          <t>Jueves 11 de Julio 
+ Aula C-103 - 7:00</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Jueves 25 de Julio 
+ Aula C-103 - 7:00</t>
         </is>
       </c>
       <c r="F11" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Martes 17 de Septiembre 
+ Lab 5 - 7:00</t>
         </is>
       </c>
       <c r="G11" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Lunes 9 de Diciembre 
+ Aula C-102 - 7:00</t>
         </is>
       </c>
       <c r="H11" s="4" t="n"/>
@@ -1087,40 +1096,43 @@
     <row customHeight="1" ht="50.1" r="12">
       <c r="A12" s="13" t="inlineStr">
         <is>
-          <t>EXPRESIÓN ORAL Y ESCRITA I</t>
+          <t>APLICACIONES WEB ORIENTADA A SERVICIOS</t>
         </is>
       </c>
       <c r="B12" s="20" t="inlineStr">
         <is>
-          <t>Lunes 11 de Noviembre 
- Aula C-104 - 7:00</t>
+          <t>Jueves 10 de Enero 
+ Lab 8 - 9:00</t>
         </is>
       </c>
       <c r="C12" s="20" t="inlineStr">
         <is>
-          <t>Lunes 11 de Noviembre 
- Aula C-104 - 7:00</t>
+          <t>Lunes 24 de Junio 
+ Lab 2 - 9:00</t>
         </is>
       </c>
       <c r="D12" s="20" t="inlineStr">
         <is>
-          <t>Lunes 11 de Noviembre 
- Aula C-104 - 7:00</t>
+          <t>Jueves 11 de Julio 
+ Lab 8 - 9:00</t>
         </is>
       </c>
       <c r="E12" s="20" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Lunes 29 de Julio 
+ Lab 8 - 9:00</t>
         </is>
       </c>
       <c r="F12" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Martes 17 de Septiembre 
+ Lab1 - 13:30</t>
         </is>
       </c>
       <c r="G12" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Lunes 9 de Diciembre 
+ Lab 2 - 11:50</t>
         </is>
       </c>
       <c r="H12" s="4" t="n"/>
@@ -1128,40 +1140,43 @@
     <row customHeight="1" ht="50.1" r="13">
       <c r="A13" s="12" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS DE TI</t>
+          <t>ESTÁNDARES Y MÉTRICAS PARA EL DESARROLLO DE SOFTWARE</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>Martes 12 de Noviembre 
- Lab Elect - 7:00</t>
+          <t>Viernes 11 de Enero 
+ Lab 4 - 9:00</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Martes 12 de Noviembre 
- Lab Elect - 7:00</t>
+          <t>Viernes 21 de Junio 
+ Lab 4 - 9:00</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Martes 12 de Noviembre 
- Lab Elect - 7:00</t>
+          <t>Viernes 12 de Julio 
+ Lab 4 - 9:00</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Viernes 26 de Julio 
+ Lab 4 - 9:00</t>
         </is>
       </c>
       <c r="F13" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Martes 17 de Septiembre 
+ Lab 5 - 7:50</t>
         </is>
       </c>
       <c r="G13" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Lunes 9 de Diciembre 
+ Lab 2 - 7:50</t>
         </is>
       </c>
       <c r="H13" s="4" t="n"/>
@@ -1169,40 +1184,43 @@
     <row customHeight="1" ht="50.1" r="14">
       <c r="A14" s="15" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS DE REDES</t>
+          <t>EVALUACIÓN Y MEJORA PARA EL DESARROLLO DE SOFTWARE</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>Miercoles 13 de Noviembre 
- Lab 4 - 7:00</t>
+          <t>Lunes 7 de Enero 
+ Lab 2 - 11:00</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Miercoles 13 de Noviembre 
- Lab 4 - 7:00</t>
+          <t>Viernes 21 de Junio 
+ Lab 5 - 7:00</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>Miercoles 13 de Noviembre 
- Lab 4 - 7:00</t>
+          <t>Lunes 8 de Julio 
+ Lab 2 - 11:00</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Viernes 26 de Julio 
+ Lab 5 - 7:00</t>
         </is>
       </c>
       <c r="F14" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Martes 17 de Septiembre 
+ Lab 9 - 9:00</t>
         </is>
       </c>
       <c r="G14" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Lunes 9 de Diciembre 
+ Lab 2 - 9:00</t>
         </is>
       </c>
       <c r="H14" s="4" t="n"/>
@@ -1210,40 +1228,43 @@
     <row customHeight="1" ht="50.1" r="15">
       <c r="A15" s="12" t="inlineStr">
         <is>
-          <t>METODOLOGÍA DE LA PROGRAMACIÓN</t>
+          <t>ESTRUCTURA DE DATOS APLICADAS</t>
         </is>
       </c>
       <c r="B15" s="16" t="inlineStr">
         <is>
-          <t>Viernes 15 de Noviembre 
- Lab 9 - 11:00</t>
+          <t>Viernes 11 de Enero 
+ Lab 2 - 11:00</t>
         </is>
       </c>
       <c r="C15" s="16" t="inlineStr">
         <is>
-          <t>Viernes 15 de Noviembre 
- Lab 9 - 11:00</t>
+          <t>Martes 25 de Junio 
+ Lab 9 - 9:00</t>
         </is>
       </c>
       <c r="D15" s="16" t="inlineStr">
         <is>
-          <t>Viernes 15 de Noviembre 
- Lab 9 - 11:00</t>
+          <t>Viernes 12 de Julio 
+ Lab 2 - 11:00</t>
         </is>
       </c>
       <c r="E15" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Martes 30 de Julio 
+ Lab 9 - 9:00</t>
         </is>
       </c>
       <c r="F15" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Viernes 13 de Septiembre 
+ Lab 5 - 7:00</t>
         </is>
       </c>
       <c r="G15" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Viernes 6 de Diciembre 
+ Lab 5 - 7:50</t>
         </is>
       </c>
       <c r="H15" s="4" t="n"/>
@@ -1251,7 +1272,7 @@
     <row customHeight="1" ht="48" r="16">
       <c r="A16" s="15" t="inlineStr">
         <is>
-          <t>INGLÉS I</t>
+          <t>INGLÉS IV</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
@@ -1271,17 +1292,17 @@
       </c>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>De acuerdo a la coordinación de inglés</t>
         </is>
       </c>
       <c r="F16" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>De acuerdo a la coordinación de inglés</t>
         </is>
       </c>
       <c r="G16" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>De acuerdo a la coordinación de inglés</t>
         </is>
       </c>
     </row>

--- a/calendario.xlsx
+++ b/calendario.xlsx
@@ -864,7 +864,7 @@
     <row customHeight="1" ht="33.75" r="2">
       <c r="B2" s="23" t="inlineStr">
         <is>
-          <t>4A-DSM</t>
+          <t>1A-DSM</t>
         </is>
       </c>
     </row>
@@ -931,32 +931,32 @@
       </c>
       <c r="B8" s="14" t="inlineStr">
         <is>
-          <t>14-Ene</t>
+          <t>4-Oct</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>28-Jun</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>15-Jul</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="E8" s="14" t="inlineStr">
         <is>
-          <t>31-Jul</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="F8" s="14" t="inlineStr">
         <is>
-          <t>18-Sep</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="G8" s="14" t="inlineStr">
         <is>
-          <t>10-Dic</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H8" s="3" t="n"/>
@@ -964,43 +964,38 @@
     <row customHeight="1" ht="50.1" r="9">
       <c r="A9" s="12" t="inlineStr">
         <is>
-          <t>DISEÑO DE APPS</t>
+          <t>ÁLGEBRA LINEAL</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>Martes 8 de Enero 
- Lab 5 - 7:00</t>
+          <t>Viernes 27 de Septiembre 
+ Aula C-101 - 7:00</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Martes 25 de Junio 
- Lab 5 - 7:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Martes 9 de Julio 
- Lab 5 - 7:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
         <is>
-          <t>Martes 30 de Julio 
- Lab 5 - 7:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="F9" s="16" t="inlineStr">
         <is>
-          <t>Martes 17 de Septiembre 
- Lab 9 - 9:50</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="G9" s="16" t="inlineStr">
         <is>
-          <t>Lunes 9 de Diciembre 
- Lab 2 - 9:50</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H9" s="4" t="n"/>
@@ -1008,43 +1003,38 @@
     <row customHeight="1" ht="50.1" r="10">
       <c r="A10" s="13" t="inlineStr">
         <is>
-          <t>PRINCIPIOS PARA IOT</t>
+          <t>METODOLOGÍA DE LA PROGRAMACIÓN</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Miercoles 9 de Enero 
- Lab 6 - 7:00</t>
+          <t>Jueves 26 de Septiembre 
+ Lab 2 - 12:40</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Miercoles 26 de Junio 
- Lab 6 - 7:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Miercoles 10 de Julio 
- Lab 6 - 7:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Miercoles 24 de Julio 
- Lab 6 - 7:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="F10" s="16" t="inlineStr">
         <is>
-          <t>Martes 17 de Septiembre 
- Lab1 - 12:40</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="G10" s="16" t="inlineStr">
         <is>
-          <t>Lunes 9 de Diciembre 
- Lab 2 - 11:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H10" s="4" t="n"/>
@@ -1052,43 +1042,38 @@
     <row customHeight="1" ht="50.1" r="11">
       <c r="A11" s="17" t="inlineStr">
         <is>
-          <t>FORMACIÓN SOCIOCULTURAL IV</t>
+          <t>DESARROLLO DE HABILIDADES DEL PENSAMIENTO LÓGICO</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>Jueves 10 de Enero 
- Aula C-103 - 7:00</t>
+          <t>Viernes 27 de Septiembre 
+ Aula C-103 - 13:30</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Jueves 27 de Junio 
- Aula C-103 - 7:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>Jueves 11 de Julio 
- Aula C-103 - 7:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
         <is>
-          <t>Jueves 25 de Julio 
- Aula C-103 - 7:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="F11" s="16" t="inlineStr">
         <is>
-          <t>Martes 17 de Septiembre 
- Lab 5 - 7:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="G11" s="16" t="inlineStr">
         <is>
-          <t>Lunes 9 de Diciembre 
- Aula C-102 - 7:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H11" s="4" t="n"/>
@@ -1096,43 +1081,38 @@
     <row customHeight="1" ht="50.1" r="12">
       <c r="A12" s="13" t="inlineStr">
         <is>
-          <t>APLICACIONES WEB ORIENTADA A SERVICIOS</t>
+          <t>EXPRESIÓN ORAL Y ESCRITA I</t>
         </is>
       </c>
       <c r="B12" s="20" t="inlineStr">
         <is>
-          <t>Jueves 10 de Enero 
- Lab 8 - 9:00</t>
+          <t>Lunes 30 de Septiembre 
+ Aula C-101 - 7:00</t>
         </is>
       </c>
       <c r="C12" s="20" t="inlineStr">
         <is>
-          <t>Lunes 24 de Junio 
- Lab 2 - 9:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="D12" s="20" t="inlineStr">
         <is>
-          <t>Jueves 11 de Julio 
- Lab 8 - 9:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="E12" s="20" t="inlineStr">
         <is>
-          <t>Lunes 29 de Julio 
- Lab 8 - 9:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="F12" s="16" t="inlineStr">
         <is>
-          <t>Martes 17 de Septiembre 
- Lab1 - 13:30</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="G12" s="16" t="inlineStr">
         <is>
-          <t>Lunes 9 de Diciembre 
- Lab 2 - 11:50</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H12" s="4" t="n"/>
@@ -1140,43 +1120,38 @@
     <row customHeight="1" ht="50.1" r="13">
       <c r="A13" s="12" t="inlineStr">
         <is>
-          <t>ESTÁNDARES Y MÉTRICAS PARA EL DESARROLLO DE SOFTWARE</t>
+          <t>FUNDAMENTOS DE TI</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>Viernes 11 de Enero 
- Lab 4 - 9:00</t>
+          <t>Jueves 3 de Octubre 
+ Lab 2 - 9:00</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Viernes 21 de Junio 
- Lab 4 - 9:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Viernes 12 de Julio 
- Lab 4 - 9:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>Viernes 26 de Julio 
- Lab 4 - 9:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="F13" s="16" t="inlineStr">
         <is>
-          <t>Martes 17 de Septiembre 
- Lab 5 - 7:50</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="G13" s="16" t="inlineStr">
         <is>
-          <t>Lunes 9 de Diciembre 
- Lab 2 - 7:50</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H13" s="4" t="n"/>
@@ -1184,43 +1159,38 @@
     <row customHeight="1" ht="50.1" r="14">
       <c r="A14" s="15" t="inlineStr">
         <is>
-          <t>EVALUACIÓN Y MEJORA PARA EL DESARROLLO DE SOFTWARE</t>
+          <t>FORMACIÓN SOCIOCULTURAL I</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>Lunes 7 de Enero 
- Lab 2 - 11:00</t>
+          <t>Lunes 30 de Septiembre 
+ Aula C-101 - 11:00</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Viernes 21 de Junio 
- Lab 5 - 7:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>Lunes 8 de Julio 
- Lab 2 - 11:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Viernes 26 de Julio 
- Lab 5 - 7:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="F14" s="16" t="inlineStr">
         <is>
-          <t>Martes 17 de Septiembre 
- Lab 9 - 9:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="G14" s="16" t="inlineStr">
         <is>
-          <t>Lunes 9 de Diciembre 
- Lab 2 - 9:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H14" s="4" t="n"/>
@@ -1228,43 +1198,38 @@
     <row customHeight="1" ht="50.1" r="15">
       <c r="A15" s="12" t="inlineStr">
         <is>
-          <t>ESTRUCTURA DE DATOS APLICADAS</t>
+          <t>FUNDAMENTOS DE REDES</t>
         </is>
       </c>
       <c r="B15" s="16" t="inlineStr">
         <is>
-          <t>Viernes 11 de Enero 
- Lab 2 - 11:00</t>
+          <t>Miercoles 2 de Octubre 
+ Lab1 - 11:00</t>
         </is>
       </c>
       <c r="C15" s="16" t="inlineStr">
         <is>
-          <t>Martes 25 de Junio 
- Lab 9 - 9:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="D15" s="16" t="inlineStr">
         <is>
-          <t>Viernes 12 de Julio 
- Lab 2 - 11:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="E15" s="16" t="inlineStr">
         <is>
-          <t>Martes 30 de Julio 
- Lab 9 - 9:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="F15" s="16" t="inlineStr">
         <is>
-          <t>Viernes 13 de Septiembre 
- Lab 5 - 7:00</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="G15" s="16" t="inlineStr">
         <is>
-          <t>Viernes 6 de Diciembre 
- Lab 5 - 7:50</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H15" s="4" t="n"/>
@@ -1272,7 +1237,7 @@
     <row customHeight="1" ht="48" r="16">
       <c r="A16" s="15" t="inlineStr">
         <is>
-          <t>INGLÉS IV</t>
+          <t>INGLÉS I</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
@@ -1282,27 +1247,27 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>De acuerdo a la coordinación de inglés</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>De acuerdo a la coordinación de inglés</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>De acuerdo a la coordinación de inglés</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="F16" s="16" t="inlineStr">
         <is>
-          <t>De acuerdo a la coordinación de inglés</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="G16" s="16" t="inlineStr">
         <is>
-          <t>De acuerdo a la coordinación de inglés</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>

--- a/calendario.xlsx
+++ b/calendario.xlsx
@@ -1003,13 +1003,13 @@
     <row customHeight="1" ht="50.1" r="10">
       <c r="A10" s="13" t="inlineStr">
         <is>
-          <t>METODOLOGÍA DE LA PROGRAMACIÓN</t>
+          <t>DESARROLLO DE HABILIDADES DEL PENSAMIENTO LÓGICO</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Jueves 26 de Septiembre 
- Lab 2 - 12:40</t>
+          <t>Martes 24 de Septiembre 
+ Lab 4 - 9:00</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1042,13 +1042,13 @@
     <row customHeight="1" ht="50.1" r="11">
       <c r="A11" s="17" t="inlineStr">
         <is>
-          <t>DESARROLLO DE HABILIDADES DEL PENSAMIENTO LÓGICO</t>
+          <t>METODOLOGÍA DE LA PROGRAMACIÓN</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
           <t>Viernes 27 de Septiembre 
- Aula C-103 - 13:30</t>
+ Lab 2 - 9:00</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">

--- a/calendario.xlsx
+++ b/calendario.xlsx
@@ -936,27 +936,27 @@
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>31-Oct</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>29-Nov</t>
         </is>
       </c>
       <c r="E8" s="14" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>4-Dic</t>
         </is>
       </c>
       <c r="F8" s="14" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>12-Dic</t>
         </is>
       </c>
       <c r="G8" s="14" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>17-Dic</t>
         </is>
       </c>
       <c r="H8" s="3" t="n"/>
@@ -975,27 +975,32 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Miercoles 30 de Octubre 
+ Aula C-101 - 7:00</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Miercoles 27 de Noviembre 
+ Aula C-101 - 7:00</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Viernes 29 de Noviembre 
+ Aula C-101 - 7:00</t>
         </is>
       </c>
       <c r="F9" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Martes 10 de Diciembre 
+ Aula C-101 - 7:00</t>
         </is>
       </c>
       <c r="G9" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Viernes 13 de Diciembre 
+ Lab 5 - 12:40</t>
         </is>
       </c>
       <c r="H9" s="4" t="n"/>
@@ -1003,38 +1008,43 @@
     <row customHeight="1" ht="50.1" r="10">
       <c r="A10" s="13" t="inlineStr">
         <is>
-          <t>DESARROLLO DE HABILIDADES DEL PENSAMIENTO LÓGICO</t>
+          <t>METODOLOGÍA DE LA PROGRAMACIÓN</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Martes 24 de Septiembre 
- Lab 4 - 9:00</t>
+          <t>Jueves 26 de Septiembre 
+ Lab 2 - 12:40</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Viernes 25 de Octubre 
+ Lab 6 - 9:00</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Jueves 28 de Noviembre 
+ Lab 2 - 12:40</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Jueves 28 de Noviembre 
+ Lab 2 - 12:40</t>
         </is>
       </c>
       <c r="F10" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Miercoles 11 de Diciembre 
+ Lab 6 - 9:50</t>
         </is>
       </c>
       <c r="G10" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Viernes 13 de Diciembre 
+ Lab 5 - 11:00</t>
         </is>
       </c>
       <c r="H10" s="4" t="n"/>
@@ -1042,38 +1052,43 @@
     <row customHeight="1" ht="50.1" r="11">
       <c r="A11" s="17" t="inlineStr">
         <is>
-          <t>METODOLOGÍA DE LA PROGRAMACIÓN</t>
+          <t>DESARROLLO DE HABILIDADES DEL PENSAMIENTO LÓGICO</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
           <t>Viernes 27 de Septiembre 
- Lab 2 - 9:00</t>
+ Aula C-103 - 13:30</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Martes 29 de Octubre 
+ Aula C-101 - 12:40</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Martes 26 de Noviembre 
+ Aula C-101 - 12:40</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Martes 3 de Diciembre 
+ Aula C-101 - 12:40</t>
         </is>
       </c>
       <c r="F11" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Miercoles 11 de Diciembre 
+ Aula C-101 - 7:50</t>
         </is>
       </c>
       <c r="G11" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Viernes 13 de Diciembre 
+ Aula C-101 - 7:50</t>
         </is>
       </c>
       <c r="H11" s="4" t="n"/>
@@ -1092,27 +1107,32 @@
       </c>
       <c r="C12" s="20" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Lunes 28 de Octubre 
+ Aula C-101 - 7:00</t>
         </is>
       </c>
       <c r="D12" s="20" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Lunes 25 de Noviembre 
+ Aula C-101 - 7:00</t>
         </is>
       </c>
       <c r="E12" s="20" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Lunes 2 de Diciembre 
+ Aula C-101 - 7:00</t>
         </is>
       </c>
       <c r="F12" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Miercoles 11 de Diciembre 
+ Lab 6 - 9:00</t>
         </is>
       </c>
       <c r="G12" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Viernes 13 de Diciembre 
+ Lab 6 - 9:50</t>
         </is>
       </c>
       <c r="H12" s="4" t="n"/>
@@ -1131,27 +1151,32 @@
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Jueves 24 de Octubre 
+ Lab 2 - 9:00</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Miercoles 27 de Noviembre 
+ Lab 6 - 9:00</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Miercoles 27 de Noviembre 
+ Lab 6 - 9:00</t>
         </is>
       </c>
       <c r="F13" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Miercoles 11 de Diciembre 
+ Lab1 - 11:00</t>
         </is>
       </c>
       <c r="G13" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Viernes 13 de Diciembre 
+ Lab 6 - 9:00</t>
         </is>
       </c>
       <c r="H13" s="4" t="n"/>
@@ -1170,27 +1195,32 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Lunes 28 de Octubre 
+ Aula C-101 - 11:00</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Lunes 25 de Noviembre 
+ Aula C-101 - 11:00</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Lunes 2 de Diciembre 
+ Aula C-101 - 11:00</t>
         </is>
       </c>
       <c r="F14" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Miercoles 11 de Diciembre 
+ Aula C-101 - 7:00</t>
         </is>
       </c>
       <c r="G14" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Viernes 13 de Diciembre 
+ Aula C-101 - 7:00</t>
         </is>
       </c>
       <c r="H14" s="4" t="n"/>
@@ -1209,27 +1239,32 @@
       </c>
       <c r="C15" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Miercoles 30 de Octubre 
+ Lab1 - 11:00</t>
         </is>
       </c>
       <c r="D15" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Viernes 22 de Noviembre 
+ Lab 5 - 11:00</t>
         </is>
       </c>
       <c r="E15" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Viernes 29 de Noviembre 
+ Lab 5 - 11:00</t>
         </is>
       </c>
       <c r="F15" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Miercoles 11 de Diciembre 
+ Lab1 - 11:50</t>
         </is>
       </c>
       <c r="G15" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Viernes 13 de Diciembre 
+ Lab 5 - 11:50</t>
         </is>
       </c>
       <c r="H15" s="4" t="n"/>
@@ -1247,27 +1282,27 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>De acuerdo a la coordinación de inglés</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>De acuerdo a la coordinación de inglés</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>De acuerdo a la coordinación de inglés</t>
         </is>
       </c>
       <c r="F16" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>De acuerdo a la coordinación de inglés</t>
         </is>
       </c>
       <c r="G16" s="16" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>De acuerdo a la coordinación de inglés</t>
         </is>
       </c>
     </row>

--- a/calendario.xlsx
+++ b/calendario.xlsx
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="14" t="inlineStr">
         <is>
-          <t>12-Dic</t>
+          <t>13-Dic</t>
         </is>
       </c>
       <c r="G8" s="14" t="inlineStr">
@@ -964,133 +964,133 @@
     <row customHeight="1" ht="50.1" r="9">
       <c r="A9" s="12" t="inlineStr">
         <is>
+          <t>DESARROLLO DE HABILIDADES DEL PENSAMIENTO LÓGICO</t>
+        </is>
+      </c>
+      <c r="B9" s="21" t="inlineStr">
+        <is>
+          <t>Martes 24 de Septiembre 
+ Aula C-101 - 7:00</t>
+        </is>
+      </c>
+      <c r="C9" s="21" t="inlineStr">
+        <is>
+          <t>Martes 29 de Octubre 
+ Aula C-101 - 12:40</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="inlineStr">
+        <is>
+          <t>Martes 26 de Noviembre 
+ Aula C-101 - 12:40</t>
+        </is>
+      </c>
+      <c r="E9" s="21" t="inlineStr">
+        <is>
+          <t>Martes 3 de Diciembre 
+ Aula C-101 - 12:40</t>
+        </is>
+      </c>
+      <c r="F9" s="16" t="inlineStr">
+        <is>
+          <t>Jueves 12 de Diciembre 
+ Aula C-101 - 7:50</t>
+        </is>
+      </c>
+      <c r="G9" s="16" t="inlineStr">
+        <is>
+          <t>Viernes 13 de Diciembre 
+ Aula C-101 - 7:50</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="10">
+      <c r="A10" s="13" t="inlineStr">
+        <is>
           <t>ÁLGEBRA LINEAL</t>
         </is>
       </c>
-      <c r="B9" s="21" t="inlineStr">
+      <c r="B10" s="21" t="inlineStr">
         <is>
           <t>Viernes 27 de Septiembre 
  Aula C-101 - 7:00</t>
         </is>
       </c>
-      <c r="C9" s="21" t="inlineStr">
+      <c r="C10" s="21" t="inlineStr">
         <is>
           <t>Miercoles 30 de Octubre 
  Aula C-101 - 7:00</t>
         </is>
       </c>
-      <c r="D9" s="21" t="inlineStr">
+      <c r="D10" s="21" t="inlineStr">
         <is>
           <t>Miercoles 27 de Noviembre 
  Aula C-101 - 7:00</t>
         </is>
       </c>
-      <c r="E9" s="21" t="inlineStr">
+      <c r="E10" s="21" t="inlineStr">
         <is>
           <t>Viernes 29 de Noviembre 
  Aula C-101 - 7:00</t>
         </is>
       </c>
-      <c r="F9" s="16" t="inlineStr">
-        <is>
-          <t>Martes 10 de Diciembre 
+      <c r="F10" s="16" t="inlineStr">
+        <is>
+          <t>Miercoles 11 de Diciembre 
  Aula C-101 - 7:00</t>
         </is>
       </c>
-      <c r="G9" s="16" t="inlineStr">
+      <c r="G10" s="16" t="inlineStr">
         <is>
           <t>Viernes 13 de Diciembre 
  Lab 5 - 12:40</t>
         </is>
       </c>
-      <c r="H9" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="50.1" r="10">
-      <c r="A10" s="13" t="inlineStr">
+      <c r="H10" s="4" t="n"/>
+    </row>
+    <row customHeight="1" ht="50.1" r="11">
+      <c r="A11" s="17" t="inlineStr">
         <is>
           <t>METODOLOGÍA DE LA PROGRAMACIÓN</t>
         </is>
       </c>
-      <c r="B10" s="21" t="inlineStr">
+      <c r="B11" s="21" t="inlineStr">
         <is>
           <t>Jueves 26 de Septiembre 
  Lab 2 - 12:40</t>
         </is>
       </c>
-      <c r="C10" s="21" t="inlineStr">
+      <c r="C11" s="22" t="inlineStr">
         <is>
           <t>Viernes 25 de Octubre 
  Lab 6 - 9:00</t>
         </is>
       </c>
-      <c r="D10" s="21" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr">
         <is>
           <t>Jueves 28 de Noviembre 
  Lab 2 - 12:40</t>
         </is>
       </c>
-      <c r="E10" s="21" t="inlineStr">
+      <c r="E11" s="21" t="inlineStr">
         <is>
           <t>Jueves 28 de Noviembre 
  Lab 2 - 12:40</t>
         </is>
       </c>
-      <c r="F10" s="16" t="inlineStr">
-        <is>
-          <t>Miercoles 11 de Diciembre 
- Lab 6 - 9:50</t>
-        </is>
-      </c>
-      <c r="G10" s="16" t="inlineStr">
+      <c r="F11" s="16" t="inlineStr">
+        <is>
+          <t>Jueves 12 de Diciembre 
+ Lab 2 - 9:50</t>
+        </is>
+      </c>
+      <c r="G11" s="16" t="inlineStr">
         <is>
           <t>Viernes 13 de Diciembre 
  Lab 5 - 11:00</t>
         </is>
       </c>
-      <c r="H10" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="50.1" r="11">
-      <c r="A11" s="17" t="inlineStr">
-        <is>
-          <t>DESARROLLO DE HABILIDADES DEL PENSAMIENTO LÓGICO</t>
-        </is>
-      </c>
-      <c r="B11" s="21" t="inlineStr">
-        <is>
-          <t>Viernes 27 de Septiembre 
- Aula C-103 - 13:30</t>
-        </is>
-      </c>
-      <c r="C11" s="22" t="inlineStr">
-        <is>
-          <t>Martes 29 de Octubre 
- Aula C-101 - 12:40</t>
-        </is>
-      </c>
-      <c r="D11" s="21" t="inlineStr">
-        <is>
-          <t>Martes 26 de Noviembre 
- Aula C-101 - 12:40</t>
-        </is>
-      </c>
-      <c r="E11" s="21" t="inlineStr">
-        <is>
-          <t>Martes 3 de Diciembre 
- Aula C-101 - 12:40</t>
-        </is>
-      </c>
-      <c r="F11" s="16" t="inlineStr">
-        <is>
-          <t>Miercoles 11 de Diciembre 
- Aula C-101 - 7:50</t>
-        </is>
-      </c>
-      <c r="G11" s="16" t="inlineStr">
-        <is>
-          <t>Viernes 13 de Diciembre 
- Aula C-101 - 7:50</t>
-        </is>
-      </c>
       <c r="H11" s="4" t="n"/>
     </row>
     <row customHeight="1" ht="50.1" r="12">
@@ -1125,8 +1125,8 @@
       </c>
       <c r="F12" s="16" t="inlineStr">
         <is>
-          <t>Miercoles 11 de Diciembre 
- Lab 6 - 9:00</t>
+          <t>Jueves 12 de Diciembre 
+ Lab 2 - 9:00</t>
         </is>
       </c>
       <c r="G12" s="16" t="inlineStr">
@@ -1169,13 +1169,13 @@
       </c>
       <c r="F13" s="16" t="inlineStr">
         <is>
-          <t>Miercoles 11 de Diciembre 
- Lab1 - 11:00</t>
+          <t>Jueves 12 de Diciembre 
+ Lab 2 - 12:40</t>
         </is>
       </c>
       <c r="G13" s="16" t="inlineStr">
         <is>
-          <t>Viernes 13 de Diciembre 
+          <t>Jueves 12 de Diciembre 
  Lab 6 - 9:00</t>
         </is>
       </c>
@@ -1213,8 +1213,8 @@
       </c>
       <c r="F14" s="16" t="inlineStr">
         <is>
-          <t>Miercoles 11 de Diciembre 
- Aula C-101 - 7:00</t>
+          <t>Jueves 12 de Diciembre 
+ Lab 4 - 7:00</t>
         </is>
       </c>
       <c r="G14" s="16" t="inlineStr">
@@ -1245,8 +1245,8 @@
       </c>
       <c r="D15" s="16" t="inlineStr">
         <is>
-          <t>Viernes 22 de Noviembre 
- Lab 5 - 11:00</t>
+          <t>Miercoles 20 de Noviembre 
+ Lab 5 - 11:50</t>
         </is>
       </c>
       <c r="E15" s="16" t="inlineStr">
@@ -1257,8 +1257,8 @@
       </c>
       <c r="F15" s="16" t="inlineStr">
         <is>
-          <t>Miercoles 11 de Diciembre 
- Lab1 - 11:50</t>
+          <t>Jueves 12 de Diciembre 
+ Lab 2 - 13:30</t>
         </is>
       </c>
       <c r="G15" s="16" t="inlineStr">

--- a/calendario.xlsx
+++ b/calendario.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Grupo - ITI" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grupo - ITI" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="LOCAL_MYSQL_DATE_FORMAT">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName hidden="1" name="LOCAL_MYSQL_DATE_FORMAT">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="0" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725" fullCalcOnLoad="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="[$-80A]dddd\,\ dd&quot; de &quot;mmmm&quot; de &quot;yyyy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="[$-80A]dddd\,\ dd&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -183,84 +183,84 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="16" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="11">
@@ -336,7 +336,7 @@
         <shadow val="0"/>
         <vertAlign val="baseline"/>
       </font>
-      <numFmt formatCode="[$-80A]dddd\,\ dd&quot; de &quot;mmmm&quot; de &quot;yyyy;@" numFmtId="164"/>
+      <numFmt numFmtId="164" formatCode="[$-80A]dddd\,\ dd&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
@@ -442,12 +442,12 @@
       <alignment horizontal="center" vertical="bottom"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>0</col>
@@ -465,24 +465,24 @@
       <nvPicPr>
         <cNvPr id="2" name="1 Imagen"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="0" y="0"/>
           <a:ext cx="3083718" cy="1625365"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -493,22 +493,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="8" displayName="Tabla2674623438253" headerRowBorderDxfId="9" headerRowCount="1" headerRowDxfId="10" id="1" name="Tabla2674623438253" ref="A6:G20" tableBorderDxfId="7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla2674623438253" displayName="Tabla2674623438253" ref="A6:G20" headerRowCount="1" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <sortState ref="A7:E15">
     <sortCondition ref="B6:B14"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn dataDxfId="6" id="1" name="Asignatura"/>
-    <tableColumn dataDxfId="5" id="2" name="Primer Periodo"/>
-    <tableColumn dataDxfId="4" id="3" name="Segundo Periodo">
+    <tableColumn id="1" name="Asignatura" dataDxfId="6"/>
+    <tableColumn id="2" name="Primer Periodo" dataDxfId="5"/>
+    <tableColumn id="3" name="Segundo Periodo" dataDxfId="4">
       <calculatedColumnFormula>Tabla2674623438253[[#This Row],[Primer Periodo]]+20</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn dataDxfId="3" id="4" name="Tercer Periodo"/>
-    <tableColumn dataDxfId="2" id="5" name="Ordinario"/>
-    <tableColumn dataDxfId="1" id="6" name="Recuperativo"/>
-    <tableColumn dataDxfId="0" id="7" name="Especial"/>
+    <tableColumn id="4" name="Tercer Periodo" dataDxfId="3"/>
+    <tableColumn id="5" name="Ordinario" dataDxfId="2"/>
+    <tableColumn id="6" name="Recuperativo" dataDxfId="1"/>
+    <tableColumn id="7" name="Especial" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium18" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -832,50 +832,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="45.42578125"/>
-    <col customWidth="1" max="2" min="2" width="27.140625"/>
-    <col customWidth="1" max="3" min="3" width="28"/>
-    <col customWidth="1" max="4" min="4" width="27.85546875"/>
-    <col customWidth="1" max="5" min="5" width="28.7109375"/>
-    <col customWidth="1" max="6" min="6" width="26.7109375"/>
-    <col customWidth="1" max="7" min="7" width="38.7109375"/>
+    <col width="45.42578125" customWidth="1" min="1" max="1"/>
+    <col width="27.140625" customWidth="1" min="2" max="2"/>
+    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="27.85546875" customWidth="1" min="4" max="4"/>
+    <col width="28.7109375" customWidth="1" min="5" max="5"/>
+    <col width="26.7109375" customWidth="1" min="6" max="6"/>
+    <col width="38.7109375" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="33.75" r="1">
+    <row r="1" ht="33.75" customHeight="1">
       <c r="B1" s="23" t="inlineStr">
         <is>
           <t xml:space="preserve">CALENDARIO DE EXÁMENES </t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="33.75" r="2">
+    <row r="2" ht="33.75" customHeight="1">
       <c r="B2" s="23" t="inlineStr">
         <is>
-          <t>1A-DSM</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.75" r="3">
+          <t>1F-IRD</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="27.75" customHeight="1">
       <c r="B3" s="24" t="inlineStr">
         <is>
           <t>TIC-ITI Sep-Dic 2019</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="21.75" r="6" thickBot="1">
+    <row r="6" ht="21.75" customHeight="1" thickBot="1">
       <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Asignatura</t>
@@ -913,7 +913,7 @@
       </c>
       <c r="H6" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="21" r="7">
+    <row r="7" ht="21" customHeight="1">
       <c r="A7" s="7" t="n"/>
       <c r="B7" s="8" t="n"/>
       <c r="C7" s="9" t="n"/>
@@ -923,7 +923,7 @@
       <c r="G7" s="5" t="n"/>
       <c r="H7" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="20.25" r="8">
+    <row r="8" ht="20.25" customHeight="1">
       <c r="A8" s="10" t="inlineStr">
         <is>
           <t>Entrega de Calificaciones</t>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="14" t="inlineStr">
         <is>
-          <t>13-Dic</t>
+          <t>12-Dic</t>
         </is>
       </c>
       <c r="G8" s="14" t="inlineStr">
@@ -961,315 +961,315 @@
       </c>
       <c r="H8" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="50.1" r="9">
+    <row r="9" ht="50.1" customHeight="1">
       <c r="A9" s="12" t="inlineStr">
         <is>
+          <t>FORMACIÓN SOCIOCULTURAL I</t>
+        </is>
+      </c>
+      <c r="B9" s="21" t="inlineStr">
+        <is>
+          <t>Jueves 26 de Septiembre 
+ Aula C-104 - 9:00</t>
+        </is>
+      </c>
+      <c r="C9" s="21" t="inlineStr">
+        <is>
+          <t>Jueves 24 de Octubre 
+ Aula C-104 - 9:00</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="inlineStr">
+        <is>
+          <t>Jueves 28 de Noviembre 
+ Aula C-104 - 9:00</t>
+        </is>
+      </c>
+      <c r="E9" s="21" t="inlineStr">
+        <is>
+          <t>Jueves 28 de Noviembre 
+ Aula C-104 - 9:00</t>
+        </is>
+      </c>
+      <c r="F9" s="16" t="inlineStr">
+        <is>
+          <t>Miercoles 11 de Diciembre 
+ Lab 4 - 7:00</t>
+        </is>
+      </c>
+      <c r="G9" s="16" t="inlineStr">
+        <is>
+          <t>Viernes 13 de Diciembre 
+ Aula C-104 - 7:50</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="n"/>
+    </row>
+    <row r="10" ht="50.1" customHeight="1">
+      <c r="A10" s="13" t="inlineStr">
+        <is>
+          <t>METODOLOGÍA DE LA PROGRAMACIÓN</t>
+        </is>
+      </c>
+      <c r="B10" s="21" t="inlineStr">
+        <is>
+          <t>Viernes 27 de Septiembre 
+ Lab 9 - 11:00</t>
+        </is>
+      </c>
+      <c r="C10" s="21" t="inlineStr">
+        <is>
+          <t>Viernes 25 de Octubre 
+ Lab 9 - 11:00</t>
+        </is>
+      </c>
+      <c r="D10" s="21" t="inlineStr">
+        <is>
+          <t>Viernes 22 de Noviembre 
+ Lab 9 - 11:00</t>
+        </is>
+      </c>
+      <c r="E10" s="21" t="inlineStr">
+        <is>
+          <t>Viernes 29 de Noviembre 
+ Lab 9 - 11:00</t>
+        </is>
+      </c>
+      <c r="F10" s="16" t="inlineStr">
+        <is>
+          <t>Miercoles 11 de Diciembre 
+ Aula C-104 - 9:50</t>
+        </is>
+      </c>
+      <c r="G10" s="16" t="inlineStr">
+        <is>
+          <t>Viernes 13 de Diciembre 
+ Lab 9 - 11:50</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="n"/>
+    </row>
+    <row r="11" ht="50.1" customHeight="1">
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t>EXPRESIÓN ORAL Y ESCRITA I</t>
+        </is>
+      </c>
+      <c r="B11" s="21" t="inlineStr">
+        <is>
+          <t>Lunes 30 de Septiembre 
+ Aula C-104 - 7:00</t>
+        </is>
+      </c>
+      <c r="C11" s="22" t="inlineStr">
+        <is>
+          <t>Miercoles 30 de Octubre 
+ Aula C-104 - 9:00</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="inlineStr">
+        <is>
+          <t>Lunes 25 de Noviembre 
+ Aula C-104 - 7:00</t>
+        </is>
+      </c>
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>Miercoles 27 de Noviembre 
+ Aula C-104 - 9:00</t>
+        </is>
+      </c>
+      <c r="F11" s="16" t="inlineStr">
+        <is>
+          <t>Miercoles 11 de Diciembre 
+ Aula C-104 - 9:00</t>
+        </is>
+      </c>
+      <c r="G11" s="16" t="inlineStr">
+        <is>
+          <t>Viernes 13 de Diciembre 
+ Lab 9 - 9:00</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="n"/>
+    </row>
+    <row r="12" ht="50.1" customHeight="1">
+      <c r="A12" s="13" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS DE REDES</t>
+        </is>
+      </c>
+      <c r="B12" s="20" t="inlineStr">
+        <is>
+          <t>Miercoles 2 de Octubre 
+ Lab 4 - 7:00</t>
+        </is>
+      </c>
+      <c r="C12" s="20" t="inlineStr">
+        <is>
+          <t>Martes 29 de Octubre 
+ Aula C-103 - 9:00</t>
+        </is>
+      </c>
+      <c r="D12" s="20" t="inlineStr">
+        <is>
+          <t>Miercoles 27 de Noviembre 
+ Lab 4 - 7:00</t>
+        </is>
+      </c>
+      <c r="E12" s="20" t="inlineStr">
+        <is>
+          <t>Martes 3 de Diciembre 
+ Aula C-103 - 9:00</t>
+        </is>
+      </c>
+      <c r="F12" s="16" t="inlineStr">
+        <is>
+          <t>Miercoles 11 de Diciembre 
+ Aula C-104 - 11:50</t>
+        </is>
+      </c>
+      <c r="G12" s="16" t="inlineStr">
+        <is>
+          <t>Viernes 13 de Diciembre 
+ Lab 9 - 11:00</t>
+        </is>
+      </c>
+      <c r="H12" s="4" t="n"/>
+    </row>
+    <row r="13" ht="50.1" customHeight="1">
+      <c r="A13" s="12" t="inlineStr">
+        <is>
+          <t>FUNDAMENTOS DE TI</t>
+        </is>
+      </c>
+      <c r="B13" s="21" t="inlineStr">
+        <is>
+          <t>Jueves 3 de Octubre 
+ Lab 6 - 7:00</t>
+        </is>
+      </c>
+      <c r="C13" s="22" t="inlineStr">
+        <is>
+          <t>Martes 29 de Octubre 
+ Lab Elect - 7:00</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="inlineStr">
+        <is>
+          <t>Martes 26 de Noviembre 
+ Lab Elect - 7:00</t>
+        </is>
+      </c>
+      <c r="E13" s="21" t="inlineStr">
+        <is>
+          <t>Martes 3 de Diciembre 
+ Lab Elect - 7:00</t>
+        </is>
+      </c>
+      <c r="F13" s="16" t="inlineStr">
+        <is>
+          <t>Miercoles 11 de Diciembre 
+ Aula C-104 - 11:00</t>
+        </is>
+      </c>
+      <c r="G13" s="16" t="inlineStr">
+        <is>
+          <t>Viernes 13 de Diciembre 
+ Lab 9 - 9:50</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="n"/>
+    </row>
+    <row r="14" ht="50.1" customHeight="1">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA LINEAL</t>
+        </is>
+      </c>
+      <c r="B14" s="21" t="inlineStr">
+        <is>
+          <t>Lunes 30 de Septiembre 
+ Aula C-104 - 9:00</t>
+        </is>
+      </c>
+      <c r="C14" s="21" t="inlineStr">
+        <is>
+          <t>Lunes 28 de Octubre 
+ Aula C-104 - 9:00</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="inlineStr">
+        <is>
+          <t>Lunes 25 de Noviembre 
+ Aula C-104 - 9:00</t>
+        </is>
+      </c>
+      <c r="E14" s="21" t="inlineStr">
+        <is>
+          <t>Lunes 2 de Diciembre 
+ Aula C-104 - 9:00</t>
+        </is>
+      </c>
+      <c r="F14" s="16" t="inlineStr">
+        <is>
+          <t>Martes 10 de Diciembre 
+ Lab Elect - 7:00</t>
+        </is>
+      </c>
+      <c r="G14" s="16" t="inlineStr">
+        <is>
+          <t>Viernes 13 de Diciembre 
+ Aula C-104 - 12:40</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="n"/>
+    </row>
+    <row r="15" ht="50.1" customHeight="1">
+      <c r="A15" s="12" t="inlineStr">
+        <is>
           <t>DESARROLLO DE HABILIDADES DEL PENSAMIENTO LÓGICO</t>
         </is>
       </c>
-      <c r="B9" s="21" t="inlineStr">
-        <is>
-          <t>Martes 24 de Septiembre 
- Aula C-101 - 7:00</t>
-        </is>
-      </c>
-      <c r="C9" s="21" t="inlineStr">
-        <is>
-          <t>Martes 29 de Octubre 
- Aula C-101 - 12:40</t>
-        </is>
-      </c>
-      <c r="D9" s="21" t="inlineStr">
-        <is>
-          <t>Martes 26 de Noviembre 
- Aula C-101 - 12:40</t>
-        </is>
-      </c>
-      <c r="E9" s="21" t="inlineStr">
-        <is>
-          <t>Martes 3 de Diciembre 
- Aula C-101 - 12:40</t>
-        </is>
-      </c>
-      <c r="F9" s="16" t="inlineStr">
-        <is>
-          <t>Jueves 12 de Diciembre 
- Aula C-101 - 7:50</t>
-        </is>
-      </c>
-      <c r="G9" s="16" t="inlineStr">
+      <c r="B15" s="16" t="inlineStr">
+        <is>
+          <t>Jueves 3 de Octubre 
+ Aula C-104 - 12:40</t>
+        </is>
+      </c>
+      <c r="C15" s="16" t="inlineStr">
+        <is>
+          <t>Jueves 24 de Octubre 
+ Aula C-104 - 12:40</t>
+        </is>
+      </c>
+      <c r="D15" s="16" t="inlineStr">
+        <is>
+          <t>Jueves 28 de Noviembre 
+ Aula C-104 - 12:40</t>
+        </is>
+      </c>
+      <c r="E15" s="16" t="inlineStr">
+        <is>
+          <t>Jueves 28 de Noviembre 
+ Aula C-104 - 12:40</t>
+        </is>
+      </c>
+      <c r="F15" s="16" t="inlineStr">
+        <is>
+          <t>Miercoles 11 de Diciembre 
+ Lab 4 - 7:50</t>
+        </is>
+      </c>
+      <c r="G15" s="16" t="inlineStr">
         <is>
           <t>Viernes 13 de Diciembre 
- Aula C-101 - 7:50</t>
-        </is>
-      </c>
-      <c r="H9" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="50.1" r="10">
-      <c r="A10" s="13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA LINEAL</t>
-        </is>
-      </c>
-      <c r="B10" s="21" t="inlineStr">
-        <is>
-          <t>Viernes 27 de Septiembre 
- Aula C-101 - 7:00</t>
-        </is>
-      </c>
-      <c r="C10" s="21" t="inlineStr">
-        <is>
-          <t>Miercoles 30 de Octubre 
- Aula C-101 - 7:00</t>
-        </is>
-      </c>
-      <c r="D10" s="21" t="inlineStr">
-        <is>
-          <t>Miercoles 27 de Noviembre 
- Aula C-101 - 7:00</t>
-        </is>
-      </c>
-      <c r="E10" s="21" t="inlineStr">
-        <is>
-          <t>Viernes 29 de Noviembre 
- Aula C-101 - 7:00</t>
-        </is>
-      </c>
-      <c r="F10" s="16" t="inlineStr">
-        <is>
-          <t>Miercoles 11 de Diciembre 
- Aula C-101 - 7:00</t>
-        </is>
-      </c>
-      <c r="G10" s="16" t="inlineStr">
-        <is>
-          <t>Viernes 13 de Diciembre 
- Lab 5 - 12:40</t>
-        </is>
-      </c>
-      <c r="H10" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="50.1" r="11">
-      <c r="A11" s="17" t="inlineStr">
-        <is>
-          <t>METODOLOGÍA DE LA PROGRAMACIÓN</t>
-        </is>
-      </c>
-      <c r="B11" s="21" t="inlineStr">
-        <is>
-          <t>Jueves 26 de Septiembre 
- Lab 2 - 12:40</t>
-        </is>
-      </c>
-      <c r="C11" s="22" t="inlineStr">
-        <is>
-          <t>Viernes 25 de Octubre 
- Lab 6 - 9:00</t>
-        </is>
-      </c>
-      <c r="D11" s="21" t="inlineStr">
-        <is>
-          <t>Jueves 28 de Noviembre 
- Lab 2 - 12:40</t>
-        </is>
-      </c>
-      <c r="E11" s="21" t="inlineStr">
-        <is>
-          <t>Jueves 28 de Noviembre 
- Lab 2 - 12:40</t>
-        </is>
-      </c>
-      <c r="F11" s="16" t="inlineStr">
-        <is>
-          <t>Jueves 12 de Diciembre 
- Lab 2 - 9:50</t>
-        </is>
-      </c>
-      <c r="G11" s="16" t="inlineStr">
-        <is>
-          <t>Viernes 13 de Diciembre 
- Lab 5 - 11:00</t>
-        </is>
-      </c>
-      <c r="H11" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="50.1" r="12">
-      <c r="A12" s="13" t="inlineStr">
-        <is>
-          <t>EXPRESIÓN ORAL Y ESCRITA I</t>
-        </is>
-      </c>
-      <c r="B12" s="20" t="inlineStr">
-        <is>
-          <t>Lunes 30 de Septiembre 
- Aula C-101 - 7:00</t>
-        </is>
-      </c>
-      <c r="C12" s="20" t="inlineStr">
-        <is>
-          <t>Lunes 28 de Octubre 
- Aula C-101 - 7:00</t>
-        </is>
-      </c>
-      <c r="D12" s="20" t="inlineStr">
-        <is>
-          <t>Lunes 25 de Noviembre 
- Aula C-101 - 7:00</t>
-        </is>
-      </c>
-      <c r="E12" s="20" t="inlineStr">
-        <is>
-          <t>Lunes 2 de Diciembre 
- Aula C-101 - 7:00</t>
-        </is>
-      </c>
-      <c r="F12" s="16" t="inlineStr">
-        <is>
-          <t>Jueves 12 de Diciembre 
- Lab 2 - 9:00</t>
-        </is>
-      </c>
-      <c r="G12" s="16" t="inlineStr">
-        <is>
-          <t>Viernes 13 de Diciembre 
- Lab 6 - 9:50</t>
-        </is>
-      </c>
-      <c r="H12" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="50.1" r="13">
-      <c r="A13" s="12" t="inlineStr">
-        <is>
-          <t>FUNDAMENTOS DE TI</t>
-        </is>
-      </c>
-      <c r="B13" s="21" t="inlineStr">
-        <is>
-          <t>Jueves 3 de Octubre 
- Lab 2 - 9:00</t>
-        </is>
-      </c>
-      <c r="C13" s="22" t="inlineStr">
-        <is>
-          <t>Jueves 24 de Octubre 
- Lab 2 - 9:00</t>
-        </is>
-      </c>
-      <c r="D13" s="21" t="inlineStr">
-        <is>
-          <t>Miercoles 27 de Noviembre 
- Lab 6 - 9:00</t>
-        </is>
-      </c>
-      <c r="E13" s="21" t="inlineStr">
-        <is>
-          <t>Miercoles 27 de Noviembre 
- Lab 6 - 9:00</t>
-        </is>
-      </c>
-      <c r="F13" s="16" t="inlineStr">
-        <is>
-          <t>Jueves 12 de Diciembre 
- Lab 2 - 12:40</t>
-        </is>
-      </c>
-      <c r="G13" s="16" t="inlineStr">
-        <is>
-          <t>Jueves 12 de Diciembre 
- Lab 6 - 9:00</t>
-        </is>
-      </c>
-      <c r="H13" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="50.1" r="14">
-      <c r="A14" s="15" t="inlineStr">
-        <is>
-          <t>FORMACIÓN SOCIOCULTURAL I</t>
-        </is>
-      </c>
-      <c r="B14" s="21" t="inlineStr">
-        <is>
-          <t>Lunes 30 de Septiembre 
- Aula C-101 - 11:00</t>
-        </is>
-      </c>
-      <c r="C14" s="21" t="inlineStr">
-        <is>
-          <t>Lunes 28 de Octubre 
- Aula C-101 - 11:00</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="inlineStr">
-        <is>
-          <t>Lunes 25 de Noviembre 
- Aula C-101 - 11:00</t>
-        </is>
-      </c>
-      <c r="E14" s="21" t="inlineStr">
-        <is>
-          <t>Lunes 2 de Diciembre 
- Aula C-101 - 11:00</t>
-        </is>
-      </c>
-      <c r="F14" s="16" t="inlineStr">
-        <is>
-          <t>Jueves 12 de Diciembre 
- Lab 4 - 7:00</t>
-        </is>
-      </c>
-      <c r="G14" s="16" t="inlineStr">
-        <is>
-          <t>Viernes 13 de Diciembre 
- Aula C-101 - 7:00</t>
-        </is>
-      </c>
-      <c r="H14" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="50.1" r="15">
-      <c r="A15" s="12" t="inlineStr">
-        <is>
-          <t>FUNDAMENTOS DE REDES</t>
-        </is>
-      </c>
-      <c r="B15" s="16" t="inlineStr">
-        <is>
-          <t>Miercoles 2 de Octubre 
- Lab1 - 11:00</t>
-        </is>
-      </c>
-      <c r="C15" s="16" t="inlineStr">
-        <is>
-          <t>Miercoles 30 de Octubre 
- Lab1 - 11:00</t>
-        </is>
-      </c>
-      <c r="D15" s="16" t="inlineStr">
-        <is>
-          <t>Miercoles 20 de Noviembre 
- Lab 5 - 11:50</t>
-        </is>
-      </c>
-      <c r="E15" s="16" t="inlineStr">
-        <is>
-          <t>Viernes 29 de Noviembre 
- Lab 5 - 11:00</t>
-        </is>
-      </c>
-      <c r="F15" s="16" t="inlineStr">
-        <is>
-          <t>Jueves 12 de Diciembre 
- Lab 2 - 13:30</t>
-        </is>
-      </c>
-      <c r="G15" s="16" t="inlineStr">
-        <is>
-          <t>Viernes 13 de Diciembre 
- Lab 5 - 11:50</t>
+ Aula C-104 - 7:00</t>
         </is>
       </c>
       <c r="H15" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="48" r="16">
+    <row r="16" ht="48" customHeight="1">
       <c r="A16" s="15" t="inlineStr">
         <is>
           <t>INGLÉS I</t>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="48" r="17">
+    <row r="17" ht="48" customHeight="1">
       <c r="A17" s="12" t="n"/>
       <c r="B17" s="16" t="n"/>
       <c r="C17" s="16" t="n"/>
@@ -1315,7 +1315,7 @@
       <c r="F17" s="16" t="n"/>
       <c r="G17" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="44.25" r="18">
+    <row r="18" ht="44.25" customHeight="1">
       <c r="A18" s="15" t="n"/>
       <c r="B18" s="21" t="n"/>
       <c r="C18" s="21" t="n"/>
@@ -1324,7 +1324,7 @@
       <c r="F18" s="16" t="n"/>
       <c r="G18" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="49.5" r="19">
+    <row r="19" ht="49.5" customHeight="1">
       <c r="A19" s="12" t="n"/>
       <c r="B19" s="16" t="n"/>
       <c r="C19" s="16" t="n"/>
@@ -1333,7 +1333,7 @@
       <c r="F19" s="16" t="n"/>
       <c r="G19" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="63.75" r="20">
+    <row r="20" ht="63.75" customHeight="1">
       <c r="A20" s="15" t="n"/>
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="n"/>
@@ -1342,7 +1342,7 @@
       <c r="F20" s="16" t="n"/>
       <c r="G20" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="21">
+    <row r="21" ht="18" customHeight="1">
       <c r="A21" s="12" t="n"/>
       <c r="B21" s="16" t="n"/>
       <c r="C21" s="16" t="n"/>
@@ -1351,7 +1351,7 @@
       <c r="F21" s="16" t="n"/>
       <c r="G21" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="22">
+    <row r="22" ht="18" customHeight="1">
       <c r="A22" s="15" t="n"/>
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="n"/>
@@ -1366,34 +1366,34 @@
       <c r="D26" s="16" t="n"/>
       <c r="E26" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="20.25" r="35">
+    <row r="35" ht="20.25" customHeight="1">
       <c r="A35" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="20.25" r="36">
+    <row r="36" ht="20.25" customHeight="1">
       <c r="A36" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="20.25" r="37">
+    <row r="37" ht="20.25" customHeight="1">
       <c r="A37" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="20.25" r="38">
+    <row r="38" ht="20.25" customHeight="1">
       <c r="A38" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="20.25" r="39">
+    <row r="39" ht="20.25" customHeight="1">
       <c r="A39" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="20.25" r="40">
+    <row r="40" ht="20.25" customHeight="1">
       <c r="A40" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="20.25" r="41">
+    <row r="41" ht="20.25" customHeight="1">
       <c r="A41" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="20.25" r="42">
+    <row r="42" ht="20.25" customHeight="1">
       <c r="A42" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="20.25" r="43">
+    <row r="43" ht="20.25" customHeight="1">
       <c r="A43" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="20.25" r="44">
+    <row r="44" ht="20.25" customHeight="1">
       <c r="A44" s="18" t="n"/>
     </row>
   </sheetData>
@@ -1402,11 +1402,11 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" scale="61"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/calendario.xlsx
+++ b/calendario.xlsx
@@ -864,7 +864,7 @@
     <row r="2" ht="33.75" customHeight="1">
       <c r="B2" s="23" t="inlineStr">
         <is>
-          <t>1F-IRD</t>
+          <t>3A-DSM</t>
         </is>
       </c>
     </row>
@@ -931,32 +931,32 @@
       </c>
       <c r="B8" s="14" t="inlineStr">
         <is>
-          <t>4-Oct</t>
+          <t>2-Jun</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>31-Oct</t>
+          <t>24-Jun</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>29-Nov</t>
+          <t>25-Jun</t>
         </is>
       </c>
       <c r="E8" s="14" t="inlineStr">
         <is>
-          <t>4-Dic</t>
+          <t>9-Jul</t>
         </is>
       </c>
       <c r="F8" s="14" t="inlineStr">
         <is>
-          <t>12-Dic</t>
+          <t>23-Jul</t>
         </is>
       </c>
       <c r="G8" s="14" t="inlineStr">
         <is>
-          <t>17-Dic</t>
+          <t>24-Jul</t>
         </is>
       </c>
       <c r="H8" s="3" t="n"/>
@@ -964,43 +964,43 @@
     <row r="9" ht="50.1" customHeight="1">
       <c r="A9" s="12" t="inlineStr">
         <is>
-          <t>FORMACIÓN SOCIOCULTURAL I</t>
+          <t>PROBABILIDAD Y ESTADÍSTICA</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>Jueves 26 de Septiembre 
- Aula C-104 - 9:00</t>
+          <t>Martes 26 de Mayo 
+ Aula C-20 - 7:00</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Jueves 24 de Octubre 
- Aula C-104 - 9:00</t>
+          <t>Martes 23 de Junio 
+ Aula C-20 - 7:00</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Jueves 28 de Noviembre 
- Aula C-104 - 9:00</t>
+          <t>Martes 23 de Junio 
+ Aula C-20 - 7:00</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
         <is>
-          <t>Jueves 28 de Noviembre 
- Aula C-104 - 9:00</t>
+          <t>Martes 7 de Julio 
+ Aula C-20 - 7:00</t>
         </is>
       </c>
       <c r="F9" s="16" t="inlineStr">
         <is>
-          <t>Miercoles 11 de Diciembre 
- Lab 4 - 7:00</t>
+          <t>Miercoles 22 de Julio 
+ Lab4 - 11:00</t>
         </is>
       </c>
       <c r="G9" s="16" t="inlineStr">
         <is>
-          <t>Viernes 13 de Diciembre 
- Aula C-104 - 7:50</t>
+          <t>Jueves 23 de Julio 
+ Aula C-17 - 12:40</t>
         </is>
       </c>
       <c r="H9" s="4" t="n"/>
@@ -1008,43 +1008,43 @@
     <row r="10" ht="50.1" customHeight="1">
       <c r="A10" s="13" t="inlineStr">
         <is>
-          <t>METODOLOGÍA DE LA PROGRAMACIÓN</t>
+          <t>FORMACIÓN SOCIOCULTURAL III</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Viernes 27 de Septiembre 
- Lab 9 - 11:00</t>
+          <t>Jueves 28 de Mayo 
+ Aula C-16 - 7:00</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Viernes 25 de Octubre 
- Lab 9 - 11:00</t>
+          <t>Jueves 18 de Junio 
+ Aula C-16 - 7:00</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Viernes 22 de Noviembre 
- Lab 9 - 11:00</t>
+          <t>Jueves 18 de Junio 
+ Aula C-16 - 7:00</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Viernes 29 de Noviembre 
- Lab 9 - 11:00</t>
+          <t>Jueves 2 de Julio 
+ Aula C-16 - 7:00</t>
         </is>
       </c>
       <c r="F10" s="16" t="inlineStr">
         <is>
-          <t>Miercoles 11 de Diciembre 
- Aula C-104 - 9:50</t>
+          <t>Miercoles 22 de Julio 
+ Aula C-23 - 7:00</t>
         </is>
       </c>
       <c r="G10" s="16" t="inlineStr">
         <is>
-          <t>Viernes 13 de Diciembre 
- Lab 9 - 11:50</t>
+          <t>Jueves 23 de Julio 
+ Aula C-16 - 7:00</t>
         </is>
       </c>
       <c r="H10" s="4" t="n"/>
@@ -1052,43 +1052,43 @@
     <row r="11" ht="50.1" customHeight="1">
       <c r="A11" s="17" t="inlineStr">
         <is>
-          <t>EXPRESIÓN ORAL Y ESCRITA I</t>
+          <t>CALCULO DIFERENCIAL</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>Lunes 30 de Septiembre 
- Aula C-104 - 7:00</t>
+          <t>Viernes 29 de Mayo 
+ Aula C-17 - 7:00</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Miercoles 30 de Octubre 
- Aula C-104 - 9:00</t>
+          <t>Viernes 19 de Junio 
+ Aula C-17 - 7:00</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>Lunes 25 de Noviembre 
- Aula C-104 - 7:00</t>
+          <t>Viernes 19 de Junio 
+ Aula C-17 - 7:00</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
         <is>
-          <t>Miercoles 27 de Noviembre 
- Aula C-104 - 9:00</t>
+          <t>Viernes 3 de Julio 
+ Aula C-17 - 7:00</t>
         </is>
       </c>
       <c r="F11" s="16" t="inlineStr">
         <is>
-          <t>Miercoles 11 de Diciembre 
- Aula C-104 - 9:00</t>
+          <t>Miercoles 22 de Julio 
+ Lab8 - 9:00</t>
         </is>
       </c>
       <c r="G11" s="16" t="inlineStr">
         <is>
-          <t>Viernes 13 de Diciembre 
- Lab 9 - 9:00</t>
+          <t>Jueves 23 de Julio 
+ Lab6 - 9:00</t>
         </is>
       </c>
       <c r="H11" s="4" t="n"/>
@@ -1096,43 +1096,43 @@
     <row r="12" ht="50.1" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS DE REDES</t>
+          <t>APLICACIONES WEB</t>
         </is>
       </c>
       <c r="B12" s="20" t="inlineStr">
         <is>
-          <t>Miercoles 2 de Octubre 
- Lab 4 - 7:00</t>
+          <t>Miercoles 27 de Mayo 
+ Lab4 - 11:00</t>
         </is>
       </c>
       <c r="C12" s="20" t="inlineStr">
         <is>
-          <t>Martes 29 de Octubre 
- Aula C-103 - 9:00</t>
+          <t>Miercoles 17 de Junio 
+ Lab4 - 11:00</t>
         </is>
       </c>
       <c r="D12" s="20" t="inlineStr">
         <is>
-          <t>Miercoles 27 de Noviembre 
- Lab 4 - 7:00</t>
+          <t>Miercoles 24 de Junio 
+ Lab4 - 11:00</t>
         </is>
       </c>
       <c r="E12" s="20" t="inlineStr">
         <is>
-          <t>Martes 3 de Diciembre 
- Aula C-103 - 9:00</t>
+          <t>Miercoles 8 de Julio 
+ Lab4 - 11:00</t>
         </is>
       </c>
       <c r="F12" s="16" t="inlineStr">
         <is>
-          <t>Miercoles 11 de Diciembre 
- Aula C-104 - 11:50</t>
+          <t>Martes 21 de Julio 
+ Aula C-20 - 7:00</t>
         </is>
       </c>
       <c r="G12" s="16" t="inlineStr">
         <is>
-          <t>Viernes 13 de Diciembre 
- Lab 9 - 11:00</t>
+          <t>Miercoles 22 de Julio 
+ Aula C-23 - 7:00</t>
         </is>
       </c>
       <c r="H12" s="4" t="n"/>
@@ -1140,43 +1140,43 @@
     <row r="13" ht="50.1" customHeight="1">
       <c r="A13" s="12" t="inlineStr">
         <is>
-          <t>FUNDAMENTOS DE TI</t>
+          <t>INTEGRADORA I</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>Jueves 3 de Octubre 
- Lab 6 - 7:00</t>
+          <t>Viernes 29 de Mayo 
+ Lab3 - 11:00</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Martes 29 de Octubre 
- Lab Elect - 7:00</t>
+          <t>Viernes 19 de Junio 
+ Lab3 - 11:00</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Martes 26 de Noviembre 
- Lab Elect - 7:00</t>
+          <t>Viernes 19 de Junio 
+ Lab3 - 11:00</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>Martes 3 de Diciembre 
- Lab Elect - 7:00</t>
+          <t>Viernes 3 de Julio 
+ Lab3 - 11:00</t>
         </is>
       </c>
       <c r="F13" s="16" t="inlineStr">
         <is>
-          <t>Miercoles 11 de Diciembre 
- Aula C-104 - 11:00</t>
+          <t>Miercoles 22 de Julio 
+ Aula C-23 - 7:50</t>
         </is>
       </c>
       <c r="G13" s="16" t="inlineStr">
         <is>
-          <t>Viernes 13 de Diciembre 
- Lab 9 - 9:50</t>
+          <t>Jueves 23 de Julio 
+ Aula C-16 - 7:50</t>
         </is>
       </c>
       <c r="H13" s="4" t="n"/>
@@ -1184,43 +1184,43 @@
     <row r="14" ht="50.1" customHeight="1">
       <c r="A14" s="15" t="inlineStr">
         <is>
-          <t>ÁLGEBRA LINEAL</t>
+          <t>SISTEMAS OPERATIVOS</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>Lunes 30 de Septiembre 
- Aula C-104 - 9:00</t>
+          <t>Lunes 1 de Junio 
+ Lab8 - 9:00</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Lunes 28 de Octubre 
- Aula C-104 - 9:00</t>
+          <t>Miercoles 17 de Junio 
+ Lab8 - 9:00</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>Lunes 25 de Noviembre 
- Aula C-104 - 9:00</t>
+          <t>Lunes 22 de Junio 
+ Lab8 - 9:00</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Lunes 2 de Diciembre 
- Aula C-104 - 9:00</t>
+          <t>Lunes 6 de Julio 
+ Lab8 - 9:00</t>
         </is>
       </c>
       <c r="F14" s="16" t="inlineStr">
         <is>
-          <t>Martes 10 de Diciembre 
- Lab Elect - 7:00</t>
+          <t>Miercoles 22 de Julio 
+ Lab8 - 9:50</t>
         </is>
       </c>
       <c r="G14" s="16" t="inlineStr">
         <is>
-          <t>Viernes 13 de Diciembre 
- Aula C-104 - 12:40</t>
+          <t>Jueves 23 de Julio 
+ Lab6 - 9:50</t>
         </is>
       </c>
       <c r="H14" s="4" t="n"/>
@@ -1228,43 +1228,43 @@
     <row r="15" ht="50.1" customHeight="1">
       <c r="A15" s="12" t="inlineStr">
         <is>
-          <t>DESARROLLO DE HABILIDADES DEL PENSAMIENTO LÓGICO</t>
+          <t>BASES DE DATOS PARA APLICACIONES</t>
         </is>
       </c>
       <c r="B15" s="16" t="inlineStr">
         <is>
-          <t>Jueves 3 de Octubre 
- Aula C-104 - 12:40</t>
+          <t>Lunes 1 de Junio 
+ Lab2 - 11:00</t>
         </is>
       </c>
       <c r="C15" s="16" t="inlineStr">
         <is>
-          <t>Jueves 24 de Octubre 
- Aula C-104 - 12:40</t>
+          <t>Lunes 22 de Junio 
+ Lab2 - 11:00</t>
         </is>
       </c>
       <c r="D15" s="16" t="inlineStr">
         <is>
-          <t>Jueves 28 de Noviembre 
- Aula C-104 - 12:40</t>
+          <t>Lunes 22 de Junio 
+ Lab2 - 11:00</t>
         </is>
       </c>
       <c r="E15" s="16" t="inlineStr">
         <is>
-          <t>Jueves 28 de Noviembre 
- Aula C-104 - 12:40</t>
+          <t>Lunes 6 de Julio 
+ Lab2 - 11:00</t>
         </is>
       </c>
       <c r="F15" s="16" t="inlineStr">
         <is>
-          <t>Miercoles 11 de Diciembre 
- Lab 4 - 7:50</t>
+          <t>Miercoles 22 de Julio 
+ Lab4 - 11:50</t>
         </is>
       </c>
       <c r="G15" s="16" t="inlineStr">
         <is>
-          <t>Viernes 13 de Diciembre 
- Aula C-104 - 7:00</t>
+          <t>Jueves 23 de Julio 
+ Lab2 - 13:30</t>
         </is>
       </c>
       <c r="H15" s="4" t="n"/>
@@ -1272,7 +1272,7 @@
     <row r="16" ht="48" customHeight="1">
       <c r="A16" s="15" t="inlineStr">
         <is>
-          <t>INGLÉS I</t>
+          <t>INGLÉS III</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
